--- a/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
+++ b/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13392" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13392" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ismail Kadare" sheetId="3" r:id="rId1"/>
@@ -10106,8 +10106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10568,7 +10568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>

--- a/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
+++ b/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13392" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Ismail Kadare" sheetId="3" r:id="rId1"/>
@@ -1033,112 +1033,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>7.7356000743262612E-2</c:v>
+                  <c:v>7.7399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1635524173356554E-2</c:v>
+                  <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3557046979865771E-3</c:v>
+                  <c:v>3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5257732608127389E-3</c:v>
+                  <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7757394045710652E-2</c:v>
+                  <c:v>2.7799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1049669468598726E-3</c:v>
+                  <c:v>9.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10204113769569695</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.849331851007341E-2</c:v>
+                  <c:v>9.8500000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5443705730995634E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6151726353383583E-3</c:v>
+                  <c:v>9.5999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.712924265949439E-3</c:v>
+                  <c:v>7.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1251295198082635E-2</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0581004601299452E-2</c:v>
+                  <c:v>8.0600000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6810993987761364E-2</c:v>
+                  <c:v>2.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5397881701567463E-2</c:v>
+                  <c:v>3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1884328181935569E-2</c:v>
+                  <c:v>1.1900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1524475700666728E-3</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3982218386931176E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7916219186883305E-2</c:v>
+                  <c:v>5.79E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3239113249915751E-3</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5525433123687084E-2</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0498962266824976E-2</c:v>
+                  <c:v>3.0499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1046583039125217E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4300089128524598E-2</c:v>
+                  <c:v>6.4299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.095758049124619E-3</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6648200580122761E-2</c:v>
+                  <c:v>3.6600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5138653119970773E-2</c:v>
+                  <c:v>2.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.5377567956563233E-2</c:v>
+                  <c:v>8.5400000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0909740834406761E-3</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9947215757167288E-2</c:v>
+                  <c:v>3.9899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3367703979919312E-2</c:v>
+                  <c:v>1.34E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7950484852874945E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2832082489551804E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.3758767191884579E-3</c:v>
+                  <c:v>8.3999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.4515824249887412E-3</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.8498641026206308E-4</c:v>
+                  <c:v>8.9999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,112 +2107,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>8.1445760569315045E-2</c:v>
+                  <c:v>8.14E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3015590617538274E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4139238728404888E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4205253054918299E-3</c:v>
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7248466688515379E-2</c:v>
+                  <c:v>2.7199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1344164052624187E-2</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11898497120651716</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6642633082073137E-2</c:v>
+                  <c:v>8.6599999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0646565850461163E-2</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1464488037829488E-3</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7633784353200053E-3</c:v>
+                  <c:v>5.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1952806779343602E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8149257924060111E-2</c:v>
+                  <c:v>6.8099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8447024673439767E-2</c:v>
+                  <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4336813521232266E-2</c:v>
+                  <c:v>3.4299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2322674282503863E-2</c:v>
+                  <c:v>1.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7286857998969992E-3</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5264759586122945E-2</c:v>
+                  <c:v>5.5300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0611451846996581E-2</c:v>
+                  <c:v>6.0600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5780233156983005E-3</c:v>
+                  <c:v>6.6E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4861182639636688E-2</c:v>
+                  <c:v>3.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9626855189849713E-2</c:v>
+                  <c:v>2.9600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2233718807060256E-2</c:v>
+                  <c:v>1.2200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0077250807622077E-2</c:v>
+                  <c:v>5.0099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4805468420806216E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7159979399784632E-2</c:v>
+                  <c:v>3.7199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.9495762910248607E-2</c:v>
+                  <c:v>2.9499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6216114986656675E-2</c:v>
+                  <c:v>7.6200000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.349454562479517E-3</c:v>
+                  <c:v>4.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.418278009270097E-2</c:v>
+                  <c:v>4.4200000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1414392059553351E-2</c:v>
+                  <c:v>1.14E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4777845404747416E-4</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.8991525820497215E-4</c:v>
+                  <c:v>5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.9638559857671248E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.8963902804438414E-3</c:v>
+                  <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4009551008942366E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,112 +3181,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>8.8007009225377519E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4049373808173993E-2</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4941503891150853E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.164304488996547E-3</c:v>
+                  <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6779364015873833E-2</c:v>
+                  <c:v>2.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0596299541308045E-2</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10190176776787095</c:v>
+                  <c:v>0.1019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1923929289285167E-2</c:v>
+                  <c:v>9.1899999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3903004689996385E-3</c:v>
+                  <c:v>9.4000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3760758645570272E-2</c:v>
+                  <c:v>1.38E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0507653455651186E-3</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1338452816574756E-2</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7472555790341693E-2</c:v>
+                  <c:v>7.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4491058083801472E-2</c:v>
+                  <c:v>2.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5128588362624336E-2</c:v>
+                  <c:v>3.5099999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8017832293975158E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0815337834355509E-3</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0900891614698759E-2</c:v>
+                  <c:v>4.0899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4280265938256973E-2</c:v>
+                  <c:v>5.4300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3292274390558157E-3</c:v>
+                  <c:v>4.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.501365768180178E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4561665721795601E-2</c:v>
+                  <c:v>3.4599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9159923723135604E-3</c:v>
+                  <c:v>9.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6269649023346906E-2</c:v>
+                  <c:v>5.6300000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0713807143225277E-3</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8572901097768385E-2</c:v>
+                  <c:v>2.86E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7614286450548885E-2</c:v>
+                  <c:v>2.76E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.2895943926196985E-2</c:v>
+                  <c:v>7.2900000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.9681492552698034E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9313508220378289E-2</c:v>
+                  <c:v>3.9300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2967066948410039E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2261505952687729E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1846106272225941E-4</c:v>
+                  <c:v>5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.5453795804772457E-3</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0709684069473792E-2</c:v>
+                  <c:v>1.0699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3812297067463794E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,112 +4335,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>7.8385346700792335E-2</c:v>
+                  <c:v>7.7399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.198287117559166E-2</c:v>
+                  <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8669805851327082E-3</c:v>
+                  <c:v>3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2475949414820155E-3</c:v>
+                  <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.762930282762294E-2</c:v>
+                  <c:v>2.7799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6685473493686273E-3</c:v>
+                  <c:v>9.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10630570756562358</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5510635991270618E-2</c:v>
+                  <c:v>9.8500000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0734691761289992E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2455115786893669E-3</c:v>
+                  <c:v>9.5999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2222457896746282E-3</c:v>
+                  <c:v>7.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1427857671441433E-2</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7452075585533353E-2</c:v>
+                  <c:v>8.0600000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7222764273627548E-2</c:v>
+                  <c:v>2.6800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5130822928303093E-2</c:v>
+                  <c:v>3.5400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1994654901794426E-2</c:v>
+                  <c:v>1.1900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0457915600239447E-3</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9338791555310455E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8594578543248635E-2</c:v>
+                  <c:v>5.79E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8844912022700171E-3</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5358248844016463E-2</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0279462850624772E-2</c:v>
+                  <c:v>3.0499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1345371588022077E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0720362750227429E-2</c:v>
+                  <c:v>6.4299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.940916396819337E-3</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6777009478829358E-2</c:v>
+                  <c:v>3.6600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6235288017835846E-2</c:v>
+                  <c:v>2.5100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.3071734611631948E-2</c:v>
+                  <c:v>8.5400000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6526534594663388E-3</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1013259048723348E-2</c:v>
+                  <c:v>3.9899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2876077621761243E-2</c:v>
+                  <c:v>1.34E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2185739805898463E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6899230287004436E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2721757943409833E-3</c:v>
+                  <c:v>8.3999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.5635354949400678E-3</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.7301243890137965E-4</c:v>
+                  <c:v>8.9999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9641,18 +9641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C2:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9671,11 +9671,10 @@
         <v>49124</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/SUM(B2:B37)</f>
-        <v>7.7356000743262612E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9683,11 +9682,10 @@
         <v>7389</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/SUM(B2:B37)</f>
-        <v>1.1635524173356554E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9695,11 +9693,10 @@
         <v>2131</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/SUM(B2:B37)</f>
-        <v>3.3557046979865771E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -9707,11 +9704,10 @@
         <v>2239</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/SUM(B2:B37)</f>
-        <v>3.5257732608127389E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -9719,11 +9715,10 @@
         <v>17627</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/SUM(B2:B37)</f>
-        <v>2.7757394045710652E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9731,11 +9726,10 @@
         <v>5782</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/SUM(B2:B37)</f>
-        <v>9.1049669468598726E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9743,11 +9737,10 @@
         <v>64800</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/SUM(B2:B37)</f>
-        <v>0.10204113769569695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9755,11 +9748,10 @@
         <v>62547</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/SUM(B2:B37)</f>
-        <v>9.849331851007341E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9767,11 +9759,10 @@
         <v>5426</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/SUM(B2:B37)</f>
-        <v>8.5443705730995634E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -9779,11 +9770,10 @@
         <v>6106</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/SUM(B2:B37)</f>
-        <v>9.6151726353383583E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9791,11 +9781,10 @@
         <v>4898</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/SUM(B2:B37)</f>
-        <v>7.712924265949439E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -9803,11 +9792,10 @@
         <v>7145</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/SUM(B2:B37)</f>
-        <v>1.1251295198082635E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -9815,11 +9803,10 @@
         <v>51172</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/SUM(B2:B37)</f>
-        <v>8.0581004601299452E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -9827,11 +9814,10 @@
         <v>17026</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/SUM(B2:B37)</f>
-        <v>2.6810993987761364E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -9839,11 +9825,10 @@
         <v>22479</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/SUM(B2:B37)</f>
-        <v>3.5397881701567463E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -9851,11 +9836,10 @@
         <v>7547</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/SUM(B2:B37)</f>
-        <v>1.1884328181935569E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -9863,11 +9847,10 @@
         <v>3272</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/SUM(B2:B37)</f>
-        <v>5.1524475700666728E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -9875,11 +9858,10 @@
         <v>21580</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/SUM(B2:B37)</f>
-        <v>3.3982218386931176E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -9887,11 +9869,10 @@
         <v>36779</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/SUM(B2:B37)</f>
-        <v>5.7916219186883305E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -9899,11 +9880,10 @@
         <v>5286</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/SUM(B2:B37)</f>
-        <v>8.3239113249915751E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -9911,11 +9891,10 @@
         <v>22560</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/SUM(B2:B37)</f>
-        <v>3.5525433123687084E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -9923,11 +9902,10 @@
         <v>19368</v>
       </c>
       <c r="C23" s="3">
-        <f>B23/SUM(B2:B37)</f>
-        <v>3.0498962266824976E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -9935,11 +9913,10 @@
         <v>7015</v>
       </c>
       <c r="C24" s="3">
-        <f>B24/SUM(B2:B37)</f>
-        <v>1.1046583039125217E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -9947,11 +9924,10 @@
         <v>40833</v>
       </c>
       <c r="C25" s="3">
-        <f>B25/SUM(B2:B37)</f>
-        <v>6.4300089128524598E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9959,11 +9935,10 @@
         <v>3236</v>
       </c>
       <c r="C26" s="3">
-        <f>B26/SUM(B2:B37)</f>
-        <v>5.095758049124619E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -9971,11 +9946,10 @@
         <v>23273</v>
       </c>
       <c r="C27" s="3">
-        <f>B27/SUM(B2:B37)</f>
-        <v>3.6648200580122761E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -9983,11 +9957,10 @@
         <v>15964</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/SUM(B2:B37)</f>
-        <v>2.5138653119970773E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -9995,11 +9968,10 @@
         <v>54218</v>
       </c>
       <c r="C29" s="3">
-        <f>B29/SUM(B2:B37)</f>
-        <v>8.5377567956563233E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -10007,11 +9979,10 @@
         <v>3868</v>
       </c>
       <c r="C30" s="3">
-        <f>B30/SUM(B2:B37)</f>
-        <v>6.0909740834406761E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -10019,11 +9990,10 @@
         <v>25368</v>
       </c>
       <c r="C31" s="3">
-        <f>B31/SUM(B2:B37)</f>
-        <v>3.9947215757167288E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -10031,11 +10001,10 @@
         <v>8489</v>
       </c>
       <c r="C32" s="3">
-        <f>B32/SUM(B2:B37)</f>
-        <v>1.3367703979919312E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -10043,11 +10012,10 @@
         <v>241</v>
       </c>
       <c r="C33" s="3">
-        <f>B33/SUM(B2:B37)</f>
-        <v>3.7950484852874945E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -10055,11 +10023,10 @@
         <v>272</v>
       </c>
       <c r="C34" s="3">
-        <f>B34/SUM(B2:B37)</f>
-        <v>4.2832082489551804E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -10067,11 +10034,10 @@
         <v>5319</v>
       </c>
       <c r="C35" s="3">
-        <f>B35/SUM(B2:B37)</f>
-        <v>8.3758767191884579E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -10079,11 +10045,10 @@
         <v>4097</v>
       </c>
       <c r="C36" s="3">
-        <f>B36/SUM(B2:B37)</f>
-        <v>6.4515824249887412E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -10091,8 +10056,7 @@
         <v>562</v>
       </c>
       <c r="C37" s="3">
-        <f>B37/SUM(B2:B37)</f>
-        <v>8.8498641026206308E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10107,15 +10071,15 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10126,7 +10090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10134,11 +10098,10 @@
         <v>17396</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/SUM(B2:B37)</f>
-        <v>8.1445760569315045E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.14E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10146,11 +10109,10 @@
         <v>2780</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/SUM(B2:B37)</f>
-        <v>1.3015590617538274E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10158,11 +10120,10 @@
         <v>302</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/SUM(B2:B37)</f>
-        <v>1.4139238728404888E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10170,11 +10131,10 @@
         <v>517</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/SUM(B2:B37)</f>
-        <v>2.4205253054918299E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10182,11 +10142,10 @@
         <v>5820</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/SUM(B2:B37)</f>
-        <v>2.7248466688515379E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -10194,11 +10153,10 @@
         <v>2423</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/SUM(B2:B37)</f>
-        <v>1.1344164052624187E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10206,11 +10164,10 @@
         <v>25414</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/SUM(B2:B37)</f>
-        <v>0.11898497120651716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10218,11 +10175,10 @@
         <v>18506</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/SUM(B2:B37)</f>
-        <v>8.6642633082073137E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10230,11 +10186,10 @@
         <v>2274</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/SUM(B2:B37)</f>
-        <v>1.0646565850461163E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10242,11 +10197,10 @@
         <v>1740</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/SUM(B2:B37)</f>
-        <v>8.1464488037829488E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10254,11 +10208,10 @@
         <v>1231</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/SUM(B2:B37)</f>
-        <v>5.7633784353200053E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10266,11 +10219,10 @@
         <v>2553</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/SUM(B2:B37)</f>
-        <v>1.1952806779343602E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10278,11 +10230,10 @@
         <v>14556</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/SUM(B2:B37)</f>
-        <v>6.8149257924060111E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10290,11 +10241,10 @@
         <v>6076</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/SUM(B2:B37)</f>
-        <v>2.8447024673439767E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10302,11 +10252,10 @@
         <v>7334</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/SUM(B2:B37)</f>
-        <v>3.4336813521232266E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10314,11 +10263,10 @@
         <v>2632</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/SUM(B2:B37)</f>
-        <v>1.2322674282503863E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10326,11 +10274,10 @@
         <v>1010</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/SUM(B2:B37)</f>
-        <v>4.7286857998969992E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -10338,11 +10285,10 @@
         <v>11804</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/SUM(B2:B37)</f>
-        <v>5.5264759586122945E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -10350,11 +10296,10 @@
         <v>12946</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/SUM(B2:B37)</f>
-        <v>6.0611451846996581E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -10362,11 +10307,10 @@
         <v>1405</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/SUM(B2:B37)</f>
-        <v>6.5780233156983005E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10374,11 +10318,10 @@
         <v>7446</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/SUM(B2:B37)</f>
-        <v>3.4861182639636688E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -10386,11 +10329,10 @@
         <v>6328</v>
       </c>
       <c r="C23" s="3">
-        <f>B23/SUM(B2:B37)</f>
-        <v>2.9626855189849713E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -10398,11 +10340,10 @@
         <v>2613</v>
       </c>
       <c r="C24" s="3">
-        <f>B24/SUM(B2:B37)</f>
-        <v>1.2233718807060256E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -10410,11 +10351,10 @@
         <v>10696</v>
       </c>
       <c r="C25" s="3">
-        <f>B25/SUM(B2:B37)</f>
-        <v>5.0077250807622077E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -10422,11 +10362,10 @@
         <v>957</v>
       </c>
       <c r="C26" s="3">
-        <f>B26/SUM(B2:B37)</f>
-        <v>4.4805468420806216E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -10434,11 +10373,10 @@
         <v>7937</v>
       </c>
       <c r="C27" s="3">
-        <f>B27/SUM(B2:B37)</f>
-        <v>3.7159979399784632E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -10446,11 +10384,10 @@
         <v>6300</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/SUM(B2:B37)</f>
-        <v>2.9495762910248607E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -10458,11 +10395,10 @@
         <v>16279</v>
       </c>
       <c r="C29" s="3">
-        <f>B29/SUM(B2:B37)</f>
-        <v>7.6216114986656675E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -10470,11 +10406,10 @@
         <v>929</v>
       </c>
       <c r="C30" s="3">
-        <f>B30/SUM(B2:B37)</f>
-        <v>4.349454562479517E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -10482,11 +10417,10 @@
         <v>9437</v>
       </c>
       <c r="C31" s="3">
-        <f>B31/SUM(B2:B37)</f>
-        <v>4.418278009270097E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -10494,11 +10428,10 @@
         <v>2438</v>
       </c>
       <c r="C32" s="3">
-        <f>B32/SUM(B2:B37)</f>
-        <v>1.1414392059553351E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -10506,11 +10439,10 @@
         <v>117</v>
       </c>
       <c r="C33" s="3">
-        <f>B33/SUM(B2:B37)</f>
-        <v>5.4777845404747416E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -10518,11 +10450,10 @@
         <v>126</v>
       </c>
       <c r="C34" s="3">
-        <f>B34/SUM(B2:B37)</f>
-        <v>5.8991525820497215E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -10530,11 +10461,10 @@
         <v>1701</v>
       </c>
       <c r="C35" s="3">
-        <f>B35/SUM(B2:B37)</f>
-        <v>7.9638559857671248E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -10542,11 +10472,10 @@
         <v>1473</v>
       </c>
       <c r="C36" s="3">
-        <f>B36/SUM(B2:B37)</f>
-        <v>6.8963902804438414E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -10554,8 +10483,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="3">
-        <f>B37/SUM(B2:B37)</f>
-        <v>4.4009551008942366E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10568,16 +10496,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10588,7 +10516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10596,11 +10524,10 @@
         <v>8538</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/SUM(B2:B37)</f>
-        <v>8.8007009225377519E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10608,11 +10535,10 @@
         <v>1363</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/SUM(B2:B37)</f>
-        <v>1.4049373808173993E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10620,11 +10546,10 @@
         <v>436</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/SUM(B2:B37)</f>
-        <v>4.4941503891150853E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10632,11 +10557,10 @@
         <v>404</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/SUM(B2:B37)</f>
-        <v>4.164304488996547E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10644,11 +10568,10 @@
         <v>2598</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/SUM(B2:B37)</f>
-        <v>2.6779364015873833E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -10656,11 +10579,10 @@
         <v>1028</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/SUM(B2:B37)</f>
-        <v>1.0596299541308045E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10668,11 +10590,10 @@
         <v>9886</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/SUM(B2:B37)</f>
-        <v>0.10190176776787095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10680,11 +10601,10 @@
         <v>8918</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/SUM(B2:B37)</f>
-        <v>9.1923929289285167E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10692,11 +10612,10 @@
         <v>911</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/SUM(B2:B37)</f>
-        <v>9.3903004689996385E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10704,11 +10623,10 @@
         <v>1335</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/SUM(B2:B37)</f>
-        <v>1.3760758645570272E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10716,11 +10634,10 @@
         <v>490</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/SUM(B2:B37)</f>
-        <v>5.0507653455651186E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10728,11 +10645,10 @@
         <v>1100</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/SUM(B2:B37)</f>
-        <v>1.1338452816574756E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10740,11 +10656,10 @@
         <v>7516</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/SUM(B2:B37)</f>
-        <v>7.7472555790341693E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10752,11 +10667,10 @@
         <v>2376</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/SUM(B2:B37)</f>
-        <v>2.4491058083801472E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10764,11 +10678,10 @@
         <v>3408</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/SUM(B2:B37)</f>
-        <v>3.5128588362624336E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10776,11 +10689,10 @@
         <v>1748</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/SUM(B2:B37)</f>
-        <v>1.8017832293975158E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10788,11 +10700,10 @@
         <v>590</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/SUM(B2:B37)</f>
-        <v>6.0815337834355509E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -10800,11 +10711,10 @@
         <v>3968</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/SUM(B2:B37)</f>
-        <v>4.0900891614698759E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -10812,11 +10722,10 @@
         <v>5266</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/SUM(B2:B37)</f>
-        <v>5.4280265938256973E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -10824,11 +10733,10 @@
         <v>420</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/SUM(B2:B37)</f>
-        <v>4.3292274390558157E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10836,11 +10744,10 @@
         <v>4367</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/SUM(B2:B37)</f>
-        <v>4.501365768180178E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -10848,11 +10755,10 @@
         <v>3353</v>
       </c>
       <c r="C23" s="3">
-        <f>B23/SUM(B2:B37)</f>
-        <v>3.4561665721795601E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -10860,11 +10766,10 @@
         <v>962</v>
       </c>
       <c r="C24" s="3">
-        <f>B24/SUM(B2:B37)</f>
-        <v>9.9159923723135604E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -10872,11 +10777,10 @@
         <v>5459</v>
       </c>
       <c r="C25" s="3">
-        <f>B25/SUM(B2:B37)</f>
-        <v>5.6269649023346906E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -10884,11 +10788,10 @@
         <v>492</v>
       </c>
       <c r="C26" s="3">
-        <f>B26/SUM(B2:B37)</f>
-        <v>5.0713807143225277E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -10896,11 +10799,10 @@
         <v>2772</v>
       </c>
       <c r="C27" s="3">
-        <f>B27/SUM(B2:B37)</f>
-        <v>2.8572901097768385E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -10908,11 +10810,10 @@
         <v>2679</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/SUM(B2:B37)</f>
-        <v>2.7614286450548885E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -10920,11 +10821,10 @@
         <v>7072</v>
       </c>
       <c r="C29" s="3">
-        <f>B29/SUM(B2:B37)</f>
-        <v>7.2895943926196985E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -10932,11 +10832,10 @@
         <v>579</v>
       </c>
       <c r="C30" s="3">
-        <f>B30/SUM(B2:B37)</f>
-        <v>5.9681492552698034E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -10944,11 +10843,10 @@
         <v>3814</v>
       </c>
       <c r="C31" s="3">
-        <f>B31/SUM(B2:B37)</f>
-        <v>3.9313508220378289E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -10956,11 +10854,10 @@
         <v>1258</v>
       </c>
       <c r="C32" s="3">
-        <f>B32/SUM(B2:B37)</f>
-        <v>1.2967066948410039E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -10968,11 +10865,10 @@
         <v>41</v>
       </c>
       <c r="C33" s="3">
-        <f>B33/SUM(B2:B37)</f>
-        <v>4.2261505952687729E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -10980,11 +10876,10 @@
         <v>60</v>
       </c>
       <c r="C34" s="3">
-        <f>B34/SUM(B2:B37)</f>
-        <v>6.1846106272225941E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -10992,11 +10887,10 @@
         <v>635</v>
       </c>
       <c r="C35" s="3">
-        <f>B35/SUM(B2:B37)</f>
-        <v>6.5453795804772457E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -11004,11 +10898,10 @@
         <v>1039</v>
       </c>
       <c r="C36" s="3">
-        <f>B36/SUM(B2:B37)</f>
-        <v>1.0709684069473792E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -11016,8 +10909,7 @@
         <v>134</v>
       </c>
       <c r="C37" s="3">
-        <f>B37/SUM(B2:B37)</f>
-        <v>1.3812297067463794E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11030,13 +10922,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11047,7 +10939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -11055,11 +10947,10 @@
         <v>66520</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/SUM(B2:B37)</f>
-        <v>7.8385346700792335E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -11067,11 +10958,10 @@
         <v>10169</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/SUM(B2:B37)</f>
-        <v>1.198287117559166E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -11079,11 +10969,10 @@
         <v>2433</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/SUM(B2:B37)</f>
-        <v>2.8669805851327082E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -11091,11 +10980,10 @@
         <v>2756</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/SUM(B2:B37)</f>
-        <v>3.2475949414820155E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -11103,11 +10991,10 @@
         <v>23447</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/SUM(B2:B37)</f>
-        <v>2.762930282762294E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -11115,11 +11002,10 @@
         <v>8205</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/SUM(B2:B37)</f>
-        <v>9.6685473493686273E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11127,11 +11013,10 @@
         <v>90214</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/SUM(B2:B37)</f>
-        <v>0.10630570756562358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -11139,11 +11024,10 @@
         <v>81053</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/SUM(B2:B37)</f>
-        <v>9.5510635991270618E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -11151,11 +11035,10 @@
         <v>7700</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/SUM(B2:B37)</f>
-        <v>9.0734691761289992E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -11163,11 +11046,10 @@
         <v>7846</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/SUM(B2:B37)</f>
-        <v>9.2455115786893669E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11175,11 +11057,10 @@
         <v>6129</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/SUM(B2:B37)</f>
-        <v>7.2222457896746282E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -11187,11 +11068,10 @@
         <v>9698</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/SUM(B2:B37)</f>
-        <v>1.1427857671441433E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11199,11 +11079,10 @@
         <v>65728</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/SUM(B2:B37)</f>
-        <v>7.7452075585533353E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -11211,11 +11090,10 @@
         <v>23102</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/SUM(B2:B37)</f>
-        <v>2.7222764273627548E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -11223,11 +11101,10 @@
         <v>29813</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/SUM(B2:B37)</f>
-        <v>3.5130822928303093E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -11235,11 +11112,10 @@
         <v>10179</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/SUM(B2:B37)</f>
-        <v>1.1994654901794426E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -11247,11 +11123,10 @@
         <v>4282</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/SUM(B2:B37)</f>
-        <v>5.0457915600239447E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -11259,11 +11134,10 @@
         <v>33384</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/SUM(B2:B37)</f>
-        <v>3.9338791555310455E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -11271,11 +11145,10 @@
         <v>49725</v>
       </c>
       <c r="C20" s="3">
-        <f>B20/SUM(B2:B37)</f>
-        <v>5.8594578543248635E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -11283,11 +11156,10 @@
         <v>6691</v>
       </c>
       <c r="C21" s="3">
-        <f>B21/SUM(B2:B37)</f>
-        <v>7.8844912022700171E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -11295,11 +11167,10 @@
         <v>30006</v>
       </c>
       <c r="C22" s="3">
-        <f>B22/SUM(B2:B37)</f>
-        <v>3.5358248844016463E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -11307,11 +11178,10 @@
         <v>25696</v>
       </c>
       <c r="C23" s="3">
-        <f>B23/SUM(B2:B37)</f>
-        <v>3.0279462850624772E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -11319,11 +11189,10 @@
         <v>9628</v>
       </c>
       <c r="C24" s="3">
-        <f>B24/SUM(B2:B37)</f>
-        <v>1.1345371588022077E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -11331,11 +11200,10 @@
         <v>51529</v>
       </c>
       <c r="C25" s="3">
-        <f>B25/SUM(B2:B37)</f>
-        <v>6.0720362750227429E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -11343,11 +11211,10 @@
         <v>4193</v>
       </c>
       <c r="C26" s="3">
-        <f>B26/SUM(B2:B37)</f>
-        <v>4.940916396819337E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -11355,11 +11222,10 @@
         <v>31210</v>
       </c>
       <c r="C27" s="3">
-        <f>B27/SUM(B2:B37)</f>
-        <v>3.6777009478829358E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -11367,11 +11233,10 @@
         <v>22264</v>
       </c>
       <c r="C28" s="3">
-        <f>B28/SUM(B2:B37)</f>
-        <v>2.6235288017835846E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -11379,11 +11244,10 @@
         <v>70497</v>
       </c>
       <c r="C29" s="3">
-        <f>B29/SUM(B2:B37)</f>
-        <v>8.3071734611631948E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -11391,11 +11255,10 @@
         <v>4797</v>
       </c>
       <c r="C30" s="3">
-        <f>B30/SUM(B2:B37)</f>
-        <v>5.6526534594663388E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -11403,11 +11266,10 @@
         <v>34805</v>
       </c>
       <c r="C31" s="3">
-        <f>B31/SUM(B2:B37)</f>
-        <v>4.1013259048723348E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -11415,11 +11277,10 @@
         <v>10927</v>
       </c>
       <c r="C32" s="3">
-        <f>B32/SUM(B2:B37)</f>
-        <v>1.2876077621761243E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -11427,11 +11288,10 @@
         <v>358</v>
       </c>
       <c r="C33" s="3">
-        <f>B33/SUM(B2:B37)</f>
-        <v>4.2185739805898463E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -11439,11 +11299,10 @@
         <v>398</v>
       </c>
       <c r="C34" s="3">
-        <f>B34/SUM(B2:B37)</f>
-        <v>4.6899230287004436E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -11451,11 +11310,10 @@
         <v>7020</v>
       </c>
       <c r="C35" s="3">
-        <f>B35/SUM(B2:B37)</f>
-        <v>8.2721757943409833E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -11463,11 +11321,10 @@
         <v>5570</v>
       </c>
       <c r="C36" s="3">
-        <f>B36/SUM(B2:B37)</f>
-        <v>6.5635354949400678E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -11475,8 +11332,7 @@
         <v>656</v>
       </c>
       <c r="C37" s="3">
-        <f>B37/SUM(B2:B37)</f>
-        <v>7.7301243890137965E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
+++ b/Statistikat/Statistikat e perdorimit te shkronjave ne libra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13392" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ismail Kadare" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Adem Demaci" sheetId="2" r:id="rId3"/>
     <sheet name="Te gjitha" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Adem Demaci'!$A$1:$C$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2527,112 +2530,112 @@
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ë</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sh</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>B</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DH</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ll</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>TH</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Rr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gj</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
+                  <c:v>Nj</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Ç</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DH</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ë</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gj</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>I</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>J</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>K</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ll</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>N</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Nj</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>P</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Q</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Rr</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Sh</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TH</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>U</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>Zh</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Xh</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Xh</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Z</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Zh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2644,112 +2647,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>9886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8918</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8538</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>7516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1363</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>436</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>404</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9886</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8918</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>911</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1335</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7516</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2376</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3408</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1748</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3968</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5266</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4367</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5459</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2772</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2679</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7072</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3814</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1258</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,112 +3067,112 @@
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ë</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>A</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sh</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>B</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>DH</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ll</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>TH</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Rr</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gj</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
+                  <c:v>Nj</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Ç</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DH</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ë</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>G</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gj</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>H</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>I</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>J</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>K</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ll</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>M</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>N</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Nj</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>P</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Q</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>R</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Rr</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>S</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Sh</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>TH</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>U</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>Zh</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Xh</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Xh</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Z</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Zh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3181,112 +3184,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.1019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>7.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.76E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
+                  <c:v>4.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1899999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.38E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.4300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.9000000000000008E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6300000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.86E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.76E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3518,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3630,7 +3632,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4093,7 +4094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4194,7 +4194,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9641,18 +9640,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>9.8500000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>8.0600000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -9949,7 +9948,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -10048,7 +10047,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -10074,12 +10073,12 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10167,7 +10166,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>6.8099999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>7.6200000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>4.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -10442,7 +10441,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -10496,16 +10495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10516,403 +10515,408 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9886</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8918</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.1899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>8538</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7516</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7072</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.2900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5459</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5266</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4367</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3968</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3814</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3408</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3353</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2772</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2679</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2598</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2376</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1748</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B19" s="2">
         <v>1363</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C19" s="3">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1335</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1258</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1039</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1028</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>962</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>911</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>635</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>590</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>579</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <v>492</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>490</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B32" s="2">
         <v>436</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C32" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2">
+        <v>420</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B34" s="2">
         <v>404</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C34" s="3">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2598</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.6800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1028</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>9886</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8918</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.1899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>911</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1335</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>490</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1100</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7516</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2376</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3408</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3.5099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1748</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>590</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3968</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.0899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5266</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>420</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4367</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3353</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.4599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2">
-        <v>962</v>
-      </c>
-      <c r="C24" s="3">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5459</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5.6300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>492</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2772</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2679</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2.76E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>7072</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7.2900000000000006E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>579</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3814</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3.9300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1258</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B37" s="2">
         <v>41</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C37" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>635</v>
-      </c>
-      <c r="C35" s="3">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1039</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>134</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1.4E-3</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C37">
+    <sortState ref="A2:C37">
+      <sortCondition descending="1" ref="B1:B37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10926,9 +10930,9 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10939,7 +10943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10961,7 +10965,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10994,7 +10998,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11020,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>9.8500000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -11038,7 +11042,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -11049,7 +11053,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -11071,7 +11075,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>8.0600000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -11093,7 +11097,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -11115,7 +11119,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -11159,7 +11163,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -11203,7 +11207,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -11214,7 +11218,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -11225,7 +11229,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -11247,7 +11251,7 @@
         <v>8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -11258,7 +11262,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -11302,7 +11306,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -11313,7 +11317,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
